--- a/Code/Results/Cases/Case_2_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031212430585168</v>
+        <v>1.058215421723377</v>
       </c>
       <c r="D2">
-        <v>1.043997843787704</v>
+        <v>1.060164991995332</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.046221772018918</v>
+        <v>1.068920104755342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055536237780943</v>
+        <v>1.048232875903794</v>
       </c>
       <c r="J2">
-        <v>1.052498040887201</v>
+        <v>1.063207800014802</v>
       </c>
       <c r="K2">
-        <v>1.054876449044174</v>
+        <v>1.062892515171501</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.057072639967742</v>
+        <v>1.071623997119951</v>
       </c>
       <c r="N2">
-        <v>1.053992708828474</v>
+        <v>1.064717677042463</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03685417908065</v>
+        <v>1.059368513081016</v>
       </c>
       <c r="D3">
-        <v>1.048339124165069</v>
+        <v>1.061071286016051</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.051346331008355</v>
+        <v>1.070023045119048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057469803986688</v>
+        <v>1.048564704089415</v>
       </c>
       <c r="J3">
-        <v>1.056388206301532</v>
+        <v>1.064012690452243</v>
       </c>
       <c r="K3">
-        <v>1.058388714254519</v>
+        <v>1.06361294887268</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.061361819768502</v>
+        <v>1.072542296131228</v>
       </c>
       <c r="N3">
-        <v>1.057888398723901</v>
+        <v>1.065523710516647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040416874861762</v>
+        <v>1.060114374261587</v>
       </c>
       <c r="D4">
-        <v>1.05108365423009</v>
+        <v>1.061657498226818</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.054588793966594</v>
+        <v>1.070736901240841</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058681237673728</v>
+        <v>1.048778113773388</v>
       </c>
       <c r="J4">
-        <v>1.058840322630731</v>
+        <v>1.064532674355968</v>
       </c>
       <c r="K4">
-        <v>1.060602289819393</v>
+        <v>1.064078263646597</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.064070168420958</v>
+        <v>1.073136081476456</v>
       </c>
       <c r="N4">
-        <v>1.060343997339549</v>
+        <v>1.066044432857158</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041894488615715</v>
+        <v>1.06042787187381</v>
       </c>
       <c r="D5">
-        <v>1.052222610733994</v>
+        <v>1.06190388933174</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.055935067886181</v>
+        <v>1.071037050018372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059181333788264</v>
+        <v>1.048867518947589</v>
       </c>
       <c r="J5">
-        <v>1.059856213853899</v>
+        <v>1.064751076538047</v>
       </c>
       <c r="K5">
-        <v>1.061519263837182</v>
+        <v>1.064273677965224</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.065193343592117</v>
+        <v>1.07338560990007</v>
       </c>
       <c r="N5">
-        <v>1.061361331244778</v>
+        <v>1.066263145195386</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042141430318406</v>
+        <v>1.060480505878222</v>
       </c>
       <c r="D6">
-        <v>1.052412993250003</v>
+        <v>1.061945256412261</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.056160145110643</v>
+        <v>1.071087448896238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05926477203128</v>
+        <v>1.048882512165953</v>
       </c>
       <c r="J6">
-        <v>1.060025924931773</v>
+        <v>1.064787735570931</v>
       </c>
       <c r="K6">
-        <v>1.061672444455863</v>
+        <v>1.064306476938528</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.065381043453127</v>
+        <v>1.073427501034459</v>
       </c>
       <c r="N6">
-        <v>1.061531283331849</v>
+        <v>1.066299856288302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040436696811872</v>
+        <v>1.060118563475741</v>
       </c>
       <c r="D7">
-        <v>1.051098930563548</v>
+        <v>1.061660790722759</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.054606848247564</v>
+        <v>1.070740911671197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05868795569011</v>
+        <v>1.048779309636352</v>
       </c>
       <c r="J7">
-        <v>1.058853955104376</v>
+        <v>1.064535593437978</v>
       </c>
       <c r="K7">
-        <v>1.060614595278073</v>
+        <v>1.064080875583371</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.064085236099997</v>
+        <v>1.073139416075539</v>
       </c>
       <c r="N7">
-        <v>1.06035764917287</v>
+        <v>1.066047356084599</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033137843560533</v>
+        <v>1.058605170189261</v>
       </c>
       <c r="D8">
-        <v>1.04547875084482</v>
+        <v>1.060471324171432</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.0479693076201</v>
+        <v>1.069292811705593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056198115424494</v>
+        <v>1.04834528921941</v>
       </c>
       <c r="J8">
-        <v>1.053826590388466</v>
+        <v>1.063479989570563</v>
       </c>
       <c r="K8">
-        <v>1.056076003805364</v>
+        <v>1.063136166205635</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.058536463349101</v>
+        <v>1.07193442693265</v>
       </c>
       <c r="N8">
-        <v>1.055323145022417</v>
+        <v>1.064990253138613</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019559714348476</v>
+        <v>1.055936283564102</v>
       </c>
       <c r="D9">
-        <v>1.035051118835333</v>
+        <v>1.05837362797139</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.035675123704805</v>
+        <v>1.066742426153607</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051491226306879</v>
+        <v>1.0475704812543</v>
       </c>
       <c r="J9">
-        <v>1.044440184839505</v>
+        <v>1.061613464903678</v>
       </c>
       <c r="K9">
-        <v>1.047600007803986</v>
+        <v>1.061464906840641</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.048214748914759</v>
+        <v>1.069807874992315</v>
       </c>
       <c r="N9">
-        <v>1.04592340970094</v>
+        <v>1.063121077792608</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009959737771126</v>
+        <v>1.054155535678641</v>
       </c>
       <c r="D10">
-        <v>1.027702020206455</v>
+        <v>1.056973994920275</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.027023426942987</v>
+        <v>1.065043037580692</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048115241907633</v>
+        <v>1.047047196409996</v>
       </c>
       <c r="J10">
-        <v>1.037783695218121</v>
+        <v>1.060364759768415</v>
       </c>
       <c r="K10">
-        <v>1.041588493304811</v>
+        <v>1.060346292399623</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.040921324957372</v>
+        <v>1.068387980110353</v>
       </c>
       <c r="N10">
-        <v>1.039257467100784</v>
+        <v>1.061870599352824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005656395912062</v>
+        <v>1.053384079654307</v>
       </c>
       <c r="D11">
-        <v>1.024414364352861</v>
+        <v>1.056367655041703</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.023155781841511</v>
+        <v>1.064307379639102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046591143889148</v>
+        <v>1.046819003947641</v>
       </c>
       <c r="J11">
-        <v>1.034795740845485</v>
+        <v>1.059823013558304</v>
       </c>
       <c r="K11">
-        <v>1.038890095106676</v>
+        <v>1.059860858992786</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.037653838355295</v>
+        <v>1.067772620498326</v>
       </c>
       <c r="N11">
-        <v>1.036265269490215</v>
+        <v>1.061328083800956</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004034376148253</v>
+        <v>1.053097467629853</v>
       </c>
       <c r="D12">
-        <v>1.023176288147961</v>
+        <v>1.0561423892858</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.021699672968232</v>
+        <v>1.064034150884307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046015123296342</v>
+        <v>1.046734001290341</v>
       </c>
       <c r="J12">
-        <v>1.033668969931728</v>
+        <v>1.059621626379177</v>
       </c>
       <c r="K12">
-        <v>1.037872541132698</v>
+        <v>1.059680386515573</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.036422624191282</v>
+        <v>1.067543967153392</v>
       </c>
       <c r="N12">
-        <v>1.035136898432519</v>
+        <v>1.061126410628935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004383397979086</v>
+        <v>1.053158949575887</v>
       </c>
       <c r="D13">
-        <v>1.023442642145994</v>
+        <v>1.056190711562142</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.02201291675939</v>
+        <v>1.064092758157132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046139139115521</v>
+        <v>1.046752245598534</v>
       </c>
       <c r="J13">
-        <v>1.033911449133653</v>
+        <v>1.059664831801461</v>
       </c>
       <c r="K13">
-        <v>1.03809151564881</v>
+        <v>1.059719105767452</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.036687535409934</v>
+        <v>1.067593017769356</v>
       </c>
       <c r="N13">
-        <v>1.035379721982724</v>
+        <v>1.061169677407873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005522809542915</v>
+        <v>1.053360389426797</v>
       </c>
       <c r="D14">
-        <v>1.024312375650956</v>
+        <v>1.056349035407891</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.023035824739017</v>
+        <v>1.064284793912449</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046543735198594</v>
+        <v>1.046811982536956</v>
       </c>
       <c r="J14">
-        <v>1.034702952948298</v>
+        <v>1.05980637007053</v>
       </c>
       <c r="K14">
-        <v>1.0388063004661</v>
+        <v>1.059845944368072</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.037552429952392</v>
+        <v>1.067753721606941</v>
       </c>
       <c r="N14">
-        <v>1.036172349823572</v>
+        <v>1.061311416677519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006221666667782</v>
+        <v>1.053484495308999</v>
       </c>
       <c r="D15">
-        <v>1.024845975409703</v>
+        <v>1.056446578088373</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.023663449628476</v>
+        <v>1.064403117075843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046791690793338</v>
+        <v>1.046848756380317</v>
       </c>
       <c r="J15">
-        <v>1.035188350929178</v>
+        <v>1.059893555435617</v>
       </c>
       <c r="K15">
-        <v>1.039244653434811</v>
+        <v>1.059924072473487</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.03808296361591</v>
+        <v>1.067852725733914</v>
       </c>
       <c r="N15">
-        <v>1.036658437125261</v>
+        <v>1.061398725855826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010242120265027</v>
+        <v>1.054206726509412</v>
       </c>
       <c r="D16">
-        <v>1.027917901764474</v>
+        <v>1.057014229547405</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.027277447511529</v>
+        <v>1.065091864665255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048215033677494</v>
+        <v>1.047062306904577</v>
       </c>
       <c r="J16">
-        <v>1.037979683442213</v>
+        <v>1.06040069150383</v>
       </c>
       <c r="K16">
-        <v>1.0417654910615</v>
+        <v>1.060378486493699</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.041135781818738</v>
+        <v>1.068428808137071</v>
       </c>
       <c r="N16">
-        <v>1.039453733650635</v>
+        <v>1.061906582115425</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012723769470004</v>
+        <v>1.054659659971102</v>
       </c>
       <c r="D17">
-        <v>1.029815894992451</v>
+        <v>1.057370224352424</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.02951105940051</v>
+        <v>1.065523947626159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04909081573129</v>
+        <v>1.047195831050075</v>
       </c>
       <c r="J17">
-        <v>1.039701622717074</v>
+        <v>1.06071852312641</v>
       </c>
       <c r="K17">
-        <v>1.043320588044794</v>
+        <v>1.060663242486846</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.043020709017599</v>
+        <v>1.068790025340848</v>
       </c>
       <c r="N17">
-        <v>1.041178118276775</v>
+        <v>1.062224865095365</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014157252089656</v>
+        <v>1.054923811807103</v>
       </c>
       <c r="D18">
-        <v>1.030912864048574</v>
+        <v>1.057577842206114</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.030802264215686</v>
+        <v>1.065775992561778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049595675460047</v>
+        <v>1.047273558433609</v>
       </c>
       <c r="J18">
-        <v>1.040695882029574</v>
+        <v>1.060903807820523</v>
       </c>
       <c r="K18">
-        <v>1.044218514120213</v>
+        <v>1.060829233039293</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.044109679672492</v>
+        <v>1.069000665591795</v>
       </c>
       <c r="N18">
-        <v>1.042173789551542</v>
+        <v>1.062410412914996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014643699359216</v>
+        <v>1.055013874603949</v>
       </c>
       <c r="D19">
-        <v>1.031285219733668</v>
+        <v>1.057648629816798</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.031240596448695</v>
+        <v>1.065861936496981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049766822916506</v>
+        <v>1.047300035186634</v>
       </c>
       <c r="J19">
-        <v>1.041033212470823</v>
+        <v>1.060966967991737</v>
       </c>
       <c r="K19">
-        <v>1.044523160734096</v>
+        <v>1.060885814113959</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.044479245218656</v>
+        <v>1.06907247974329</v>
       </c>
       <c r="N19">
-        <v>1.042511599040711</v>
+        <v>1.062473662780898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012458973098113</v>
+        <v>1.05461106829417</v>
       </c>
       <c r="D20">
-        <v>1.029613310097494</v>
+        <v>1.057332032368439</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.02927262492871</v>
+        <v>1.065477587332231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048997473813291</v>
+        <v>1.047181521207453</v>
       </c>
       <c r="J20">
-        <v>1.039517928763755</v>
+        <v>1.060684433266751</v>
       </c>
       <c r="K20">
-        <v>1.043154692186631</v>
+        <v>1.06063270150207</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.042819565262245</v>
+        <v>1.0687512755003</v>
       </c>
       <c r="N20">
-        <v>1.040994163456973</v>
+        <v>1.062190726824195</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005187945051891</v>
+        <v>1.053301072051685</v>
       </c>
       <c r="D21">
-        <v>1.024056736109084</v>
+        <v>1.056302414204649</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.022735152586029</v>
+        <v>1.064228243421365</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046424869742049</v>
+        <v>1.046794398176288</v>
       </c>
       <c r="J21">
-        <v>1.034470350469211</v>
+        <v>1.059764694961628</v>
       </c>
       <c r="K21">
-        <v>1.038596242904556</v>
+        <v>1.059808598009078</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.037298233073699</v>
+        <v>1.067706400586065</v>
       </c>
       <c r="N21">
-        <v>1.035939417022285</v>
+        <v>1.061269682385183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000479127832591</v>
+        <v>1.052477083728441</v>
       </c>
       <c r="D22">
-        <v>1.020464758638779</v>
+        <v>1.055654796775969</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.01851129539315</v>
+        <v>1.063442889134456</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044749768902548</v>
+        <v>1.046549599271685</v>
       </c>
       <c r="J22">
-        <v>1.031198305750161</v>
+        <v>1.059185501382196</v>
       </c>
       <c r="K22">
-        <v>1.035641421386137</v>
+        <v>1.059289520168777</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.033724748237162</v>
+        <v>1.067048974936382</v>
       </c>
       <c r="N22">
-        <v>1.032662725624426</v>
+        <v>1.060689666284435</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002988928717227</v>
+        <v>1.052913928503069</v>
       </c>
       <c r="D23">
-        <v>1.022378632138234</v>
+        <v>1.055998135469605</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.020761648677245</v>
+        <v>1.063859205665081</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045643427575836</v>
+        <v>1.046679504583804</v>
       </c>
       <c r="J23">
-        <v>1.032942581299425</v>
+        <v>1.059492630159616</v>
       </c>
       <c r="K23">
-        <v>1.037216569838942</v>
+        <v>1.059564781676247</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.035629179671898</v>
+        <v>1.067397533687508</v>
       </c>
       <c r="N23">
-        <v>1.034409478245041</v>
+        <v>1.060997231219946</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012578666395678</v>
+        <v>1.054633024893936</v>
       </c>
       <c r="D24">
-        <v>1.029704880620634</v>
+        <v>1.057349289767977</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.02938039903011</v>
+        <v>1.065498535496767</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049039669414156</v>
+        <v>1.047187987688115</v>
       </c>
       <c r="J24">
-        <v>1.039600963347497</v>
+        <v>1.060699837319059</v>
       </c>
       <c r="K24">
-        <v>1.043229681548164</v>
+        <v>1.060646501975841</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.042910485759206</v>
+        <v>1.068768785044503</v>
       </c>
       <c r="N24">
-        <v>1.041077315959347</v>
+        <v>1.062206152752024</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.023161374273688</v>
+        <v>1.056626511354596</v>
       </c>
       <c r="D25">
-        <v>1.037813430042224</v>
+        <v>1.058916137038395</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.038929574128759</v>
+        <v>1.067401605913475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052748206948221</v>
+        <v>1.047771975498968</v>
       </c>
       <c r="J25">
-        <v>1.046933639820199</v>
+        <v>1.062096770861628</v>
       </c>
       <c r="K25">
-        <v>1.049851789142504</v>
+        <v>1.061897748053181</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.050952187708571</v>
+        <v>1.07035802353087</v>
       </c>
       <c r="N25">
-        <v>1.04842040567371</v>
+        <v>1.063605070100454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058215421723377</v>
+        <v>1.031212430585168</v>
       </c>
       <c r="D2">
-        <v>1.060164991995332</v>
+        <v>1.043997843787704</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.068920104755342</v>
+        <v>1.046221772018918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048232875903794</v>
+        <v>1.055536237780943</v>
       </c>
       <c r="J2">
-        <v>1.063207800014802</v>
+        <v>1.052498040887201</v>
       </c>
       <c r="K2">
-        <v>1.062892515171501</v>
+        <v>1.054876449044174</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.071623997119951</v>
+        <v>1.057072639967741</v>
       </c>
       <c r="N2">
-        <v>1.064717677042463</v>
+        <v>1.053992708828474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059368513081016</v>
+        <v>1.036854179080651</v>
       </c>
       <c r="D3">
-        <v>1.061071286016051</v>
+        <v>1.04833912416507</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.070023045119048</v>
+        <v>1.051346331008356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048564704089415</v>
+        <v>1.057469803986689</v>
       </c>
       <c r="J3">
-        <v>1.064012690452243</v>
+        <v>1.056388206301533</v>
       </c>
       <c r="K3">
-        <v>1.06361294887268</v>
+        <v>1.05838871425452</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.072542296131228</v>
+        <v>1.061361819768504</v>
       </c>
       <c r="N3">
-        <v>1.065523710516647</v>
+        <v>1.057888398723902</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060114374261587</v>
+        <v>1.040416874861762</v>
       </c>
       <c r="D4">
-        <v>1.061657498226818</v>
+        <v>1.051083654230091</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.070736901240841</v>
+        <v>1.054588793966595</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048778113773388</v>
+        <v>1.058681237673728</v>
       </c>
       <c r="J4">
-        <v>1.064532674355968</v>
+        <v>1.058840322630731</v>
       </c>
       <c r="K4">
-        <v>1.064078263646597</v>
+        <v>1.060602289819394</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.073136081476456</v>
+        <v>1.064070168420958</v>
       </c>
       <c r="N4">
-        <v>1.066044432857158</v>
+        <v>1.060343997339549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06042787187381</v>
+        <v>1.041894488615716</v>
       </c>
       <c r="D5">
-        <v>1.06190388933174</v>
+        <v>1.052222610733994</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.071037050018372</v>
+        <v>1.055935067886181</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048867518947589</v>
+        <v>1.059181333788264</v>
       </c>
       <c r="J5">
-        <v>1.064751076538047</v>
+        <v>1.0598562138539</v>
       </c>
       <c r="K5">
-        <v>1.064273677965224</v>
+        <v>1.061519263837182</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.07338560990007</v>
+        <v>1.065193343592117</v>
       </c>
       <c r="N5">
-        <v>1.066263145195386</v>
+        <v>1.061361331244779</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060480505878222</v>
+        <v>1.042141430318406</v>
       </c>
       <c r="D6">
-        <v>1.061945256412261</v>
+        <v>1.052412993250003</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.071087448896238</v>
+        <v>1.056160145110643</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048882512165953</v>
+        <v>1.059264772031279</v>
       </c>
       <c r="J6">
-        <v>1.064787735570931</v>
+        <v>1.060025924931772</v>
       </c>
       <c r="K6">
-        <v>1.064306476938528</v>
+        <v>1.061672444455862</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.073427501034459</v>
+        <v>1.065381043453127</v>
       </c>
       <c r="N6">
-        <v>1.066299856288302</v>
+        <v>1.061531283331849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060118563475741</v>
+        <v>1.040436696811871</v>
       </c>
       <c r="D7">
-        <v>1.061660790722759</v>
+        <v>1.051098930563547</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.070740911671197</v>
+        <v>1.054606848247563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048779309636352</v>
+        <v>1.058687955690109</v>
       </c>
       <c r="J7">
-        <v>1.064535593437978</v>
+        <v>1.058853955104374</v>
       </c>
       <c r="K7">
-        <v>1.064080875583371</v>
+        <v>1.060614595278072</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.073139416075539</v>
+        <v>1.064085236099996</v>
       </c>
       <c r="N7">
-        <v>1.066047356084599</v>
+        <v>1.060357649172869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058605170189261</v>
+        <v>1.033137843560533</v>
       </c>
       <c r="D8">
-        <v>1.060471324171432</v>
+        <v>1.04547875084482</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.069292811705593</v>
+        <v>1.047969307620101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04834528921941</v>
+        <v>1.056198115424494</v>
       </c>
       <c r="J8">
-        <v>1.063479989570563</v>
+        <v>1.053826590388466</v>
       </c>
       <c r="K8">
-        <v>1.063136166205635</v>
+        <v>1.056076003805364</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.07193442693265</v>
+        <v>1.058536463349101</v>
       </c>
       <c r="N8">
-        <v>1.064990253138613</v>
+        <v>1.055323145022417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055936283564102</v>
+        <v>1.019559714348477</v>
       </c>
       <c r="D9">
-        <v>1.05837362797139</v>
+        <v>1.035051118835333</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.066742426153607</v>
+        <v>1.035675123704806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0475704812543</v>
+        <v>1.051491226306879</v>
       </c>
       <c r="J9">
-        <v>1.061613464903678</v>
+        <v>1.044440184839506</v>
       </c>
       <c r="K9">
-        <v>1.061464906840641</v>
+        <v>1.047600007803986</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.069807874992315</v>
+        <v>1.04821474891476</v>
       </c>
       <c r="N9">
-        <v>1.063121077792608</v>
+        <v>1.045923409700941</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054155535678641</v>
+        <v>1.009959737771127</v>
       </c>
       <c r="D10">
-        <v>1.056973994920275</v>
+        <v>1.027702020206455</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.065043037580692</v>
+        <v>1.027023426942988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047047196409996</v>
+        <v>1.048115241907633</v>
       </c>
       <c r="J10">
-        <v>1.060364759768415</v>
+        <v>1.037783695218121</v>
       </c>
       <c r="K10">
-        <v>1.060346292399623</v>
+        <v>1.041588493304812</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.068387980110353</v>
+        <v>1.040921324957373</v>
       </c>
       <c r="N10">
-        <v>1.061870599352824</v>
+        <v>1.039257467100785</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.053384079654307</v>
+        <v>1.005656395912062</v>
       </c>
       <c r="D11">
-        <v>1.056367655041703</v>
+        <v>1.02441436435286</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.064307379639102</v>
+        <v>1.02315578184151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046819003947641</v>
+        <v>1.046591143889147</v>
       </c>
       <c r="J11">
-        <v>1.059823013558304</v>
+        <v>1.034795740845485</v>
       </c>
       <c r="K11">
-        <v>1.059860858992786</v>
+        <v>1.038890095106676</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.067772620498326</v>
+        <v>1.037653838355295</v>
       </c>
       <c r="N11">
-        <v>1.061328083800956</v>
+        <v>1.036265269490215</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.053097467629853</v>
+        <v>1.004034376148254</v>
       </c>
       <c r="D12">
-        <v>1.0561423892858</v>
+        <v>1.023176288147963</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.064034150884307</v>
+        <v>1.021699672968234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046734001290341</v>
+        <v>1.046015123296343</v>
       </c>
       <c r="J12">
-        <v>1.059621626379177</v>
+        <v>1.033668969931729</v>
       </c>
       <c r="K12">
-        <v>1.059680386515573</v>
+        <v>1.0378725411327</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.067543967153392</v>
+        <v>1.036422624191284</v>
       </c>
       <c r="N12">
-        <v>1.061126410628935</v>
+        <v>1.035136898432521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.053158949575887</v>
+        <v>1.004383397979085</v>
       </c>
       <c r="D13">
-        <v>1.056190711562142</v>
+        <v>1.023442642145994</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.064092758157132</v>
+        <v>1.02201291675939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046752245598534</v>
+        <v>1.046139139115521</v>
       </c>
       <c r="J13">
-        <v>1.059664831801461</v>
+        <v>1.033911449133654</v>
       </c>
       <c r="K13">
-        <v>1.059719105767452</v>
+        <v>1.03809151564881</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.067593017769356</v>
+        <v>1.036687535409935</v>
       </c>
       <c r="N13">
-        <v>1.061169677407873</v>
+        <v>1.035379721982724</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.053360389426797</v>
+        <v>1.005522809542913</v>
       </c>
       <c r="D14">
-        <v>1.056349035407891</v>
+        <v>1.024312375650955</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.064284793912449</v>
+        <v>1.023035824739016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046811982536956</v>
+        <v>1.046543735198593</v>
       </c>
       <c r="J14">
-        <v>1.05980637007053</v>
+        <v>1.034702952948297</v>
       </c>
       <c r="K14">
-        <v>1.059845944368072</v>
+        <v>1.038806300466099</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.067753721606941</v>
+        <v>1.03755242995239</v>
       </c>
       <c r="N14">
-        <v>1.061311416677519</v>
+        <v>1.03617234982357</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053484495308999</v>
+        <v>1.006221666667783</v>
       </c>
       <c r="D15">
-        <v>1.056446578088373</v>
+        <v>1.024845975409703</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.064403117075843</v>
+        <v>1.023663449628476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046848756380317</v>
+        <v>1.046791690793338</v>
       </c>
       <c r="J15">
-        <v>1.059893555435617</v>
+        <v>1.035188350929179</v>
       </c>
       <c r="K15">
-        <v>1.059924072473487</v>
+        <v>1.039244653434811</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.067852725733914</v>
+        <v>1.038082963615911</v>
       </c>
       <c r="N15">
-        <v>1.061398725855826</v>
+        <v>1.036658437125262</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054206726509412</v>
+        <v>1.010242120265029</v>
       </c>
       <c r="D16">
-        <v>1.057014229547405</v>
+        <v>1.027917901764475</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.065091864665255</v>
+        <v>1.027277447511531</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047062306904577</v>
+        <v>1.048215033677495</v>
       </c>
       <c r="J16">
-        <v>1.06040069150383</v>
+        <v>1.037979683442215</v>
       </c>
       <c r="K16">
-        <v>1.060378486493699</v>
+        <v>1.041765491061502</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.068428808137071</v>
+        <v>1.04113578181874</v>
       </c>
       <c r="N16">
-        <v>1.061906582115425</v>
+        <v>1.039453733650637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054659659971102</v>
+        <v>1.012723769470004</v>
       </c>
       <c r="D17">
-        <v>1.057370224352424</v>
+        <v>1.029815894992451</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.065523947626159</v>
+        <v>1.029511059400509</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047195831050075</v>
+        <v>1.04909081573129</v>
       </c>
       <c r="J17">
-        <v>1.06071852312641</v>
+        <v>1.039701622717074</v>
       </c>
       <c r="K17">
-        <v>1.060663242486846</v>
+        <v>1.043320588044794</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.068790025340848</v>
+        <v>1.043020709017599</v>
       </c>
       <c r="N17">
-        <v>1.062224865095365</v>
+        <v>1.041178118276775</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054923811807103</v>
+        <v>1.014157252089656</v>
       </c>
       <c r="D18">
-        <v>1.057577842206114</v>
+        <v>1.030912864048573</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.065775992561778</v>
+        <v>1.030802264215686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047273558433609</v>
+        <v>1.049595675460047</v>
       </c>
       <c r="J18">
-        <v>1.060903807820523</v>
+        <v>1.040695882029573</v>
       </c>
       <c r="K18">
-        <v>1.060829233039293</v>
+        <v>1.044218514120213</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.069000665591795</v>
+        <v>1.044109679672492</v>
       </c>
       <c r="N18">
-        <v>1.062410412914996</v>
+        <v>1.042173789551541</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055013874603949</v>
+        <v>1.014643699359218</v>
       </c>
       <c r="D19">
-        <v>1.057648629816798</v>
+        <v>1.03128521973367</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.065861936496981</v>
+        <v>1.031240596448697</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047300035186634</v>
+        <v>1.049766822916507</v>
       </c>
       <c r="J19">
-        <v>1.060966967991737</v>
+        <v>1.041033212470826</v>
       </c>
       <c r="K19">
-        <v>1.060885814113959</v>
+        <v>1.044523160734099</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.06907247974329</v>
+        <v>1.044479245218658</v>
       </c>
       <c r="N19">
-        <v>1.062473662780898</v>
+        <v>1.042511599040713</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05461106829417</v>
+        <v>1.012458973098114</v>
       </c>
       <c r="D20">
-        <v>1.057332032368439</v>
+        <v>1.029613310097495</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.065477587332231</v>
+        <v>1.029272624928711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047181521207453</v>
+        <v>1.048997473813291</v>
       </c>
       <c r="J20">
-        <v>1.060684433266751</v>
+        <v>1.039517928763756</v>
       </c>
       <c r="K20">
-        <v>1.06063270150207</v>
+        <v>1.043154692186632</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.0687512755003</v>
+        <v>1.042819565262245</v>
       </c>
       <c r="N20">
-        <v>1.062190726824195</v>
+        <v>1.040994163456973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053301072051685</v>
+        <v>1.005187945051892</v>
       </c>
       <c r="D21">
-        <v>1.056302414204649</v>
+        <v>1.024056736109085</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.064228243421365</v>
+        <v>1.02273515258603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046794398176288</v>
+        <v>1.04642486974205</v>
       </c>
       <c r="J21">
-        <v>1.059764694961628</v>
+        <v>1.034470350469211</v>
       </c>
       <c r="K21">
-        <v>1.059808598009078</v>
+        <v>1.038596242904557</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.067706400586065</v>
+        <v>1.0372982330737</v>
       </c>
       <c r="N21">
-        <v>1.061269682385183</v>
+        <v>1.035939417022286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052477083728441</v>
+        <v>1.000479127832591</v>
       </c>
       <c r="D22">
-        <v>1.055654796775969</v>
+        <v>1.020464758638778</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.063442889134456</v>
+        <v>1.01851129539315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046549599271685</v>
+        <v>1.044749768902548</v>
       </c>
       <c r="J22">
-        <v>1.059185501382196</v>
+        <v>1.031198305750161</v>
       </c>
       <c r="K22">
-        <v>1.059289520168777</v>
+        <v>1.035641421386137</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.067048974936382</v>
+        <v>1.033724748237163</v>
       </c>
       <c r="N22">
-        <v>1.060689666284435</v>
+        <v>1.032662725624426</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052913928503069</v>
+        <v>1.002988928717229</v>
       </c>
       <c r="D23">
-        <v>1.055998135469605</v>
+        <v>1.022378632138236</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.063859205665081</v>
+        <v>1.020761648677247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046679504583804</v>
+        <v>1.045643427575838</v>
       </c>
       <c r="J23">
-        <v>1.059492630159616</v>
+        <v>1.032942581299428</v>
       </c>
       <c r="K23">
-        <v>1.059564781676247</v>
+        <v>1.037216569838944</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.067397533687508</v>
+        <v>1.0356291796719</v>
       </c>
       <c r="N23">
-        <v>1.060997231219946</v>
+        <v>1.034409478245043</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054633024893936</v>
+        <v>1.012578666395678</v>
       </c>
       <c r="D24">
-        <v>1.057349289767977</v>
+        <v>1.029704880620634</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.065498535496767</v>
+        <v>1.029380399030111</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047187987688115</v>
+        <v>1.049039669414156</v>
       </c>
       <c r="J24">
-        <v>1.060699837319059</v>
+        <v>1.039600963347497</v>
       </c>
       <c r="K24">
-        <v>1.060646501975841</v>
+        <v>1.043229681548165</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.068768785044503</v>
+        <v>1.042910485759207</v>
       </c>
       <c r="N24">
-        <v>1.062206152752024</v>
+        <v>1.041077315959348</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056626511354596</v>
+        <v>1.023161374273689</v>
       </c>
       <c r="D25">
-        <v>1.058916137038395</v>
+        <v>1.037813430042225</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.067401605913475</v>
+        <v>1.03892957412876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047771975498968</v>
+        <v>1.052748206948221</v>
       </c>
       <c r="J25">
-        <v>1.062096770861628</v>
+        <v>1.0469336398202</v>
       </c>
       <c r="K25">
-        <v>1.061897748053181</v>
+        <v>1.049851789142505</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.07035802353087</v>
+        <v>1.050952187708573</v>
       </c>
       <c r="N25">
-        <v>1.063605070100454</v>
+        <v>1.048420405673711</v>
       </c>
     </row>
   </sheetData>
